--- a/biology/Zoologie/Cassique_huppé/Cassique_huppé.xlsx
+++ b/biology/Zoologie/Cassique_huppé/Cassique_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_hupp%C3%A9</t>
+          <t>Cassique_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psarocolius decumanus
 Le Cassique huppé (Psarocolius decumanus) aussi appelé Oropendola huppé est une espèce d'oiseau passeriforme de la famille des ictéridés propre à l'Amérique du Sud et à l'extrême sud de l'Amérique Central.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_hupp%C3%A9</t>
+          <t>Cassique_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâles sont en général plus grand que les femelles avec une taille de 46 cm pour un poids de 300 g en moyenne, contre 37 cm pour 180 g environ pour les femelles.
 Un dimorphisme sexuel peut être observé chez cette espèce, les mâles adultes ont un plumage majoritairement noir avec le croupion brun et la queue d'un jaune vif avec deux plumes centrales plus sombres. Les mâles ont, contrairement aux femelles, une longue et fine crête noire bien que difficilement observable. Les femelles arborent le même plumage mais avec des couleurs plus ternes. Cette espèce présente des iris bleues et un long bec blanchâtre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_hupp%C3%A9</t>
+          <t>Cassique_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime alimentaire du Cassique huppé se compose de gros insectes, de fruits et de nectar qu'il trouve dans les arbres. Pour s'alimenter il peut former de petits groupes ou rester seul.
 Il produit de fortes vocalisations sonnant comme un « clack ». Les mâles émettent des chants caractéristiques qui incluent de vibrants « CreeeEEEoooooooooo ».
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_hupp%C3%A9</t>
+          <t>Cassique_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique huppé vie dans les clairières, les lisières de forêts et les terres basses à l'est des Andes. En dehors de leur période de reproduction cette espèce est plutôt mobile et peut réaliser quelques déplacements saisonniers.
 On le retrouve dans de nombreux pays d'Amérique du Sud, depuis la Colombie s'étalant sur l'Amazonie et les Yungas de Bolivie jusqu'au nord de l'Argentine, ainsi qu'au Panama et sur les îles de Trinité-et-Tobago.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_hupp%C3%A9</t>
+          <t>Cassique_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est représenté par 4 sous-espèces :
 Psarocolius decumanus decumanus (Pallas, 1769) s'étend depuis la Colombie vers le sud jusqu'au fleuve Amazone au Brésil ;
